--- a/Config/Excel/mods.xlsx
+++ b/Config/Excel/mods.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDE48A8-EF22-4781-B455-72B96C25BF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="34710" yWindow="2910" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mod" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <r>
       <t>i</t>
@@ -68,11 +69,31 @@
     <t>天下三分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOD2</t>
+  </si>
+  <si>
+    <t>MOD3</t>
+  </si>
+  <si>
+    <t>MOD4</t>
+  </si>
+  <si>
+    <t>MOD5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -480,11 +501,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -492,68 +513,92 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/mods.xlsx
+++ b/Config/Excel/mods.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDE48A8-EF22-4781-B455-72B96C25BF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34710" yWindow="2910" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34710" yWindow="2910" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Mod" sheetId="1" r:id="rId1"/>
@@ -54,11 +53,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>群雄并起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官渡之战</t>
+    <t>folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOD2</t>
+  </si>
+  <si>
+    <t>MOD3</t>
+  </si>
+  <si>
+    <t>MOD4</t>
+  </si>
+  <si>
+    <t>MOD5</t>
+  </si>
+  <si>
+    <t>讨伐董卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群雄割据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -66,34 +85,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天下三分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>folder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOD1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOD2</t>
-  </si>
-  <si>
-    <t>MOD3</t>
-  </si>
-  <si>
-    <t>MOD4</t>
-  </si>
-  <si>
-    <t>MOD5</t>
+    <t>三国鼎立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -501,11 +500,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -543,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -554,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -562,10 +561,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -573,10 +572,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -584,10 +583,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -595,10 +594,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
